--- a/Data_Table.xlsx
+++ b/Data_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bergluae/AEBERGL/USR/BERGLUND/12CK_RSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC05EBD-26C9-D44E-9797-516725E71C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8589F2-8BE4-FD45-8204-92CD12190853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="4560" windowWidth="26440" windowHeight="15440" activeTab="4" xr2:uid="{CF8D50F9-AAFA-0A4A-968A-92799934F76F}"/>
+    <workbookView xWindow="54600" yWindow="2700" windowWidth="26440" windowHeight="15440" activeTab="4" xr2:uid="{CF8D50F9-AAFA-0A4A-968A-92799934F76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Proficiency" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="O2O" sheetId="3" r:id="rId3"/>
     <sheet name="Run1 vs Run2" sheetId="4" r:id="rId4"/>
     <sheet name="LOD" sheetId="5" r:id="rId5"/>
+    <sheet name="ImpMacroDiss" sheetId="6" r:id="rId6"/>
+    <sheet name="SurgVsBiop_A" sheetId="7" r:id="rId7"/>
+    <sheet name="SurgVsBiop_B" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="129">
   <si>
     <t>CLIA_PR_11</t>
   </si>
@@ -261,13 +264,172 @@
     <t>S19-5</t>
   </si>
   <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>S19</t>
+    <t>S_11_O1</t>
+  </si>
+  <si>
+    <t>S_13_O1</t>
+  </si>
+  <si>
+    <t>S_14_O1</t>
+  </si>
+  <si>
+    <t>S_11_O2</t>
+  </si>
+  <si>
+    <t>S_13_O2</t>
+  </si>
+  <si>
+    <t>S_14_O2</t>
+  </si>
+  <si>
+    <t>N1_A</t>
+  </si>
+  <si>
+    <t>N1_B</t>
+  </si>
+  <si>
+    <t>N3_A</t>
+  </si>
+  <si>
+    <t>N3_B</t>
+  </si>
+  <si>
+    <t>N4_A</t>
+  </si>
+  <si>
+    <t>N4_B</t>
+  </si>
+  <si>
+    <t>PM1_A</t>
+  </si>
+  <si>
+    <t>PM1_B</t>
+  </si>
+  <si>
+    <t>PM3_A</t>
+  </si>
+  <si>
+    <t>PM3_B</t>
+  </si>
+  <si>
+    <t>PM4_A</t>
+  </si>
+  <si>
+    <t>PM4_B</t>
+  </si>
+  <si>
+    <t>T1_A</t>
+  </si>
+  <si>
+    <t>T1_B</t>
+  </si>
+  <si>
+    <t>T3_A</t>
+  </si>
+  <si>
+    <t>T3_B</t>
+  </si>
+  <si>
+    <t>T4_A</t>
+  </si>
+  <si>
+    <t>T4_B</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>PM1</t>
+  </si>
+  <si>
+    <t>PM3</t>
+  </si>
+  <si>
+    <t>PM4</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>PB_1</t>
+  </si>
+  <si>
+    <t>PB_2</t>
+  </si>
+  <si>
+    <t>PB_3</t>
+  </si>
+  <si>
+    <t>PB_5</t>
+  </si>
+  <si>
+    <t>Surg_1</t>
+  </si>
+  <si>
+    <t>Surg_2</t>
+  </si>
+  <si>
+    <t>Surg_3</t>
+  </si>
+  <si>
+    <t>Surg_5</t>
+  </si>
+  <si>
+    <t>S_1</t>
+  </si>
+  <si>
+    <t>S_2</t>
+  </si>
+  <si>
+    <t>S_3</t>
+  </si>
+  <si>
+    <t>S_4</t>
+  </si>
+  <si>
+    <t>biopsy_1</t>
+  </si>
+  <si>
+    <t>biopsy_2</t>
+  </si>
+  <si>
+    <t>biopsy_3</t>
+  </si>
+  <si>
+    <t>biopsy_4</t>
+  </si>
+  <si>
+    <t>biopsy_5</t>
+  </si>
+  <si>
+    <t>surgery_1</t>
+  </si>
+  <si>
+    <t>surgery_2</t>
+  </si>
+  <si>
+    <t>surgery_3</t>
+  </si>
+  <si>
+    <t>surgery_4</t>
+  </si>
+  <si>
+    <t>surgery_5</t>
+  </si>
+  <si>
+    <t>S_5</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1193,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,7 +1221,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>-0.71772000000000002</v>
@@ -1073,7 +1235,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>-0.83233000000000001</v>
@@ -1087,7 +1249,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>-0.47721999999999998</v>
@@ -1101,7 +1263,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>-0.63431999999999999</v>
@@ -1115,7 +1277,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>-3.0335000000000001</v>
@@ -1129,7 +1291,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>-2.9866999999999999</v>
@@ -1143,7 +1305,7 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>-2.6682999999999999</v>
@@ -1157,7 +1319,7 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>-2.8046000000000002</v>
@@ -1171,7 +1333,7 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>2.6465999999999998</v>
@@ -1185,7 +1347,7 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>2.6067999999999998</v>
@@ -1199,7 +1361,7 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>2.6718999999999999</v>
@@ -1213,7 +1375,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>2.7423000000000002</v>
@@ -1232,7 +1394,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1535,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1400,7 +1562,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>-5.6089000000000002</v>
@@ -1414,7 +1576,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>-5.3315999999999999</v>
@@ -1428,7 +1590,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>-5.4621000000000004</v>
@@ -1442,7 +1604,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>-5.5472000000000001</v>
@@ -1456,7 +1618,7 @@
         <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>-5.3882000000000003</v>
@@ -1470,7 +1632,7 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>-5.8246000000000002</v>
@@ -1484,7 +1646,7 @@
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>-4.4192</v>
@@ -1498,7 +1660,7 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>-4.4653</v>
@@ -1512,7 +1674,7 @@
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>-4.4489999999999998</v>
@@ -1526,7 +1688,7 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>-4.2807000000000004</v>
@@ -1540,7 +1702,7 @@
         <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>-4.2769000000000004</v>
@@ -1554,7 +1716,7 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>-4.3377999999999997</v>
@@ -1568,7 +1730,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>-3.96</v>
@@ -1582,7 +1744,7 @@
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>-3.9908000000000001</v>
@@ -1596,7 +1758,7 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>-3.7286999999999999</v>
@@ -1610,7 +1772,7 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>-3.9474</v>
@@ -1624,7 +1786,7 @@
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>-4.3720999999999997</v>
@@ -1637,4 +1799,602 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C4F194-0182-CE4E-B510-13315B687CCB}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>2.9032</v>
+      </c>
+      <c r="D2">
+        <v>0.65843076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3">
+        <v>2.9788000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.65843076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.69170589999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>2.0695999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.65843076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>-0.70401000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.59281008000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7">
+        <v>-0.65371999999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.48197167000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>-1.0718000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.62167415999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>-1.077</v>
+      </c>
+      <c r="D9">
+        <v>0.51832001000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>2.0194999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.57686468999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>2.0548000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.46602628000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>1.7968999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.59281008000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>1.9105000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.59281008000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>-1.6249</v>
+      </c>
+      <c r="D14">
+        <v>0.62167415999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>-1.7766999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.51832001000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16">
+        <v>2.2911999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.61013983000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17">
+        <v>2.3468</v>
+      </c>
+      <c r="D17">
+        <v>0.61013983000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18">
+        <v>-0.80237000000000003</v>
+      </c>
+      <c r="D18">
+        <v>0.55159515000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19">
+        <v>-0.75602999999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.55159515000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58275ADA-267D-6C43-B4C9-E5BD01267432}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2">
+        <v>-0.41565999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.61871964000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <v>-0.64046999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.64417795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4">
+        <v>3.1347</v>
+      </c>
+      <c r="D4">
+        <v>0.61871964000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5">
+        <v>1.5278</v>
+      </c>
+      <c r="D5">
+        <v>0.71291263999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <v>-2.0024000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.67681539999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7">
+        <v>-0.61045000000000005</v>
+      </c>
+      <c r="D7">
+        <v>0.58321568000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8">
+        <v>3.8210000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.54998495000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9">
+        <v>1.0324</v>
+      </c>
+      <c r="D9">
+        <v>0.69715601999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22EDFED-795C-A54A-ADAC-872FCD3D7D53}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2">
+        <v>4.4116</v>
+      </c>
+      <c r="D2">
+        <v>0.44168149000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <v>1.4581999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.54998495000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4">
+        <v>3.4211999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.39489851999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5">
+        <v>3.9089</v>
+      </c>
+      <c r="D5">
+        <v>0.53308710000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6">
+        <v>-0.61133000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.55953494000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>3.3289</v>
+      </c>
+      <c r="D7">
+        <v>0.44168149000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8">
+        <v>1.9303999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.44568063000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9">
+        <v>3.2191999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.27601807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10">
+        <v>2.1034000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.47406831999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>-0.67910999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.45673858000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data_Table.xlsx
+++ b/Data_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bergluae/AEBERGL/USR/BERGLUND/12CK_RSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8589F2-8BE4-FD45-8204-92CD12190853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF85102-464C-884A-B4AE-A1155A5450D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54600" yWindow="2700" windowWidth="26440" windowHeight="15440" activeTab="4" xr2:uid="{CF8D50F9-AAFA-0A4A-968A-92799934F76F}"/>
+    <workbookView xWindow="63800" yWindow="6980" windowWidth="26440" windowHeight="15440" activeTab="8" xr2:uid="{CF8D50F9-AAFA-0A4A-968A-92799934F76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Proficiency" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ImpMacroDiss" sheetId="6" r:id="rId6"/>
     <sheet name="SurgVsBiop_A" sheetId="7" r:id="rId7"/>
     <sheet name="SurgVsBiop_B" sheetId="8" r:id="rId8"/>
+    <sheet name="Concordance" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="157">
   <si>
     <t>CLIA_PR_11</t>
   </si>
@@ -430,6 +431,90 @@
   </si>
   <si>
     <t>S_5</t>
+  </si>
+  <si>
+    <t>COV_C10</t>
+  </si>
+  <si>
+    <t>COV_C11</t>
+  </si>
+  <si>
+    <t>COV_C12</t>
+  </si>
+  <si>
+    <t>COV_C13</t>
+  </si>
+  <si>
+    <t>COV_C15</t>
+  </si>
+  <si>
+    <t>COV_C16</t>
+  </si>
+  <si>
+    <t>COV_C17</t>
+  </si>
+  <si>
+    <t>COV_C18</t>
+  </si>
+  <si>
+    <t>COV_C22</t>
+  </si>
+  <si>
+    <t>COV_C25</t>
+  </si>
+  <si>
+    <t>COV_C26</t>
+  </si>
+  <si>
+    <t>COV_C29</t>
+  </si>
+  <si>
+    <t>COV_C4</t>
+  </si>
+  <si>
+    <t>COV_C9</t>
+  </si>
+  <si>
+    <t>MCC_C10</t>
+  </si>
+  <si>
+    <t>MCC_C11</t>
+  </si>
+  <si>
+    <t>MCC_C12</t>
+  </si>
+  <si>
+    <t>MCC_C13</t>
+  </si>
+  <si>
+    <t>MCC_C15</t>
+  </si>
+  <si>
+    <t>MCC_C16</t>
+  </si>
+  <si>
+    <t>MCC_C17</t>
+  </si>
+  <si>
+    <t>MCC_C18</t>
+  </si>
+  <si>
+    <t>MCC_C22</t>
+  </si>
+  <si>
+    <t>MCC_C25</t>
+  </si>
+  <si>
+    <t>MCC_C26</t>
+  </si>
+  <si>
+    <t>MCC_C29</t>
+  </si>
+  <si>
+    <t>MCC_C4</t>
+  </si>
+  <si>
+    <t>MCC_C9</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC92D16-06BC-504F-BCB0-C9063DB9CB37}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2234,7 +2319,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2397,4 +2482,425 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B616B70-7E25-0F4A-9095-93538258DAB8}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>-2.161</v>
+      </c>
+      <c r="D2">
+        <v>0.45854201999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3">
+        <v>0.69721999999999995</v>
+      </c>
+      <c r="D3">
+        <v>0.16049251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <v>3.9466000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.38685648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5">
+        <v>0.78779999999999994</v>
+      </c>
+      <c r="D5">
+        <v>0.58949163000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6">
+        <v>3.6610999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.28406010999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7">
+        <v>1.3174999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.47865321999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8">
+        <v>3.0625</v>
+      </c>
+      <c r="D8">
+        <v>0.35615391000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9">
+        <v>2.8946999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.44479597999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10">
+        <v>0.76202000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.21139621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11">
+        <v>-1.2763</v>
+      </c>
+      <c r="D11">
+        <v>0.21594092000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12">
+        <v>4.3394000000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.15655595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13">
+        <v>-3.198</v>
+      </c>
+      <c r="D13">
+        <v>0.55205068999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14">
+        <v>2.6099000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.32374257000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15">
+        <v>3.5855000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.39185809999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16">
+        <v>-2.0792999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.51832001000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17">
+        <v>2.3883999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.21290416000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18">
+        <v>4.3327</v>
+      </c>
+      <c r="D18">
+        <v>0.40599298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19">
+        <v>1.8948</v>
+      </c>
+      <c r="D19">
+        <v>0.47406831999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20">
+        <v>3.2946</v>
+      </c>
+      <c r="D20">
+        <v>0.40599298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21">
+        <v>3.4668999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.28711252999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22">
+        <v>3.0257999999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.49930142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23">
+        <v>3.8635999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.39185809999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24">
+        <v>2.8835999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.16900865000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25">
+        <v>0.94138999999999995</v>
+      </c>
+      <c r="D25">
+        <v>0.21290416000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.26523807999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27">
+        <v>-2.1897000000000002</v>
+      </c>
+      <c r="D27">
+        <v>0.55205068999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28">
+        <v>2.8344999999999998</v>
+      </c>
+      <c r="D28">
+        <v>0.39336605000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29">
+        <v>3.9544999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.21139621</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data_Table.xlsx
+++ b/Data_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bergluae/AEBERGL/USR/BERGLUND/12CK_RSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF85102-464C-884A-B4AE-A1155A5450D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6616AAF2-D64A-EF4B-A165-37CEC50DFEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63800" yWindow="6980" windowWidth="26440" windowHeight="15440" activeTab="8" xr2:uid="{CF8D50F9-AAFA-0A4A-968A-92799934F76F}"/>
+    <workbookView xWindow="23880" yWindow="4580" windowWidth="26440" windowHeight="15440" activeTab="5" xr2:uid="{CF8D50F9-AAFA-0A4A-968A-92799934F76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Proficiency" sheetId="1" r:id="rId1"/>
@@ -1890,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C4F194-0182-CE4E-B510-13315B687CCB}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1940,86 +1940,86 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>2.0209999999999999</v>
+        <v>-1.0718000000000001</v>
       </c>
       <c r="D4">
-        <v>0.69170589999999998</v>
+        <v>0.62167415999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>2.0695999999999999</v>
+        <v>-1.077</v>
       </c>
       <c r="D5">
-        <v>0.65843076</v>
+        <v>0.51832001000000005</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C6">
-        <v>-0.70401000000000002</v>
+        <v>-1.6249</v>
       </c>
       <c r="D6">
-        <v>0.59281008000000002</v>
+        <v>0.62167415999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C7">
-        <v>-0.65371999999999997</v>
+        <v>-1.7766999999999999</v>
       </c>
       <c r="D7">
-        <v>0.48197167000000002</v>
+        <v>0.51832001000000005</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8">
-        <v>-1.0718000000000001</v>
+        <v>2.0209999999999999</v>
       </c>
       <c r="D8">
-        <v>0.62167415999999998</v>
+        <v>0.69170589999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9">
-        <v>-1.077</v>
+        <v>2.0695999999999999</v>
       </c>
       <c r="D9">
-        <v>0.51832001000000005</v>
+        <v>0.65843076</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2052,86 +2052,86 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C12">
-        <v>1.7968999999999999</v>
+        <v>2.2911999999999999</v>
       </c>
       <c r="D12">
-        <v>0.59281008000000002</v>
+        <v>0.61013983000000005</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C13">
-        <v>1.9105000000000001</v>
+        <v>2.3468</v>
       </c>
       <c r="D13">
-        <v>0.59281008000000002</v>
+        <v>0.61013983000000005</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14">
-        <v>-1.6249</v>
+        <v>-0.70401000000000002</v>
       </c>
       <c r="D14">
-        <v>0.62167415999999998</v>
+        <v>0.59281008000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C15">
-        <v>-1.7766999999999999</v>
+        <v>-0.65371999999999997</v>
       </c>
       <c r="D15">
-        <v>0.51832001000000005</v>
+        <v>0.48197167000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16">
-        <v>2.2911999999999999</v>
+        <v>1.7968999999999999</v>
       </c>
       <c r="D16">
-        <v>0.61013983000000005</v>
+        <v>0.59281008000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17">
-        <v>2.3468</v>
+        <v>1.9105000000000001</v>
       </c>
       <c r="D17">
-        <v>0.61013983000000005</v>
+        <v>0.59281008000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2488,7 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B616B70-7E25-0F4A-9095-93538258DAB8}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
